--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il1a-Il1r1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il1a-Il1r1.xlsx
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.02286966666666667</v>
+        <v>0.05441666666666667</v>
       </c>
       <c r="H2">
-        <v>0.068609</v>
+        <v>0.16325</v>
       </c>
       <c r="I2">
-        <v>0.001711767187487096</v>
+        <v>0.00608027172874025</v>
       </c>
       <c r="J2">
-        <v>0.001711767187487096</v>
+        <v>0.006080271728740251</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.37432</v>
+        <v>13.00733333333333</v>
       </c>
       <c r="N2">
-        <v>40.12296000000001</v>
+        <v>39.022</v>
       </c>
       <c r="O2">
-        <v>0.1019828318366699</v>
+        <v>0.1070948256796854</v>
       </c>
       <c r="P2">
-        <v>0.1077302617359031</v>
+        <v>0.1106092800596386</v>
       </c>
       <c r="Q2">
-        <v>0.3058662402933334</v>
+        <v>0.7078157222222222</v>
       </c>
       <c r="R2">
-        <v>2.752796162640001</v>
+        <v>6.3703415</v>
       </c>
       <c r="S2">
-        <v>0.0001745708652250259</v>
+        <v>0.0006511656408745563</v>
       </c>
       <c r="T2">
-        <v>0.0001844091271389156</v>
+        <v>0.0006725344784829336</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.02286966666666667</v>
+        <v>0.05441666666666667</v>
       </c>
       <c r="H3">
-        <v>0.068609</v>
+        <v>0.16325</v>
       </c>
       <c r="I3">
-        <v>0.001711767187487096</v>
+        <v>0.00608027172874025</v>
       </c>
       <c r="J3">
-        <v>0.001711767187487096</v>
+        <v>0.006080271728740251</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>288.71896</v>
       </c>
       <c r="O3">
-        <v>0.7338535627914345</v>
+        <v>0.7923813923330444</v>
       </c>
       <c r="P3">
-        <v>0.7752112289052886</v>
+        <v>0.8183844063648099</v>
       </c>
       <c r="Q3">
-        <v>2.200968791848889</v>
+        <v>5.237041135555557</v>
       </c>
       <c r="R3">
-        <v>19.80871912664</v>
+        <v>47.13337022000001</v>
       </c>
       <c r="S3">
-        <v>0.001256186449206879</v>
+        <v>0.004817894178182447</v>
       </c>
       <c r="T3">
-        <v>0.001326981145011622</v>
+        <v>0.004975999569261827</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.02286966666666667</v>
+        <v>0.05441666666666667</v>
       </c>
       <c r="H4">
-        <v>0.068609</v>
+        <v>0.16325</v>
       </c>
       <c r="I4">
-        <v>0.001711767187487096</v>
+        <v>0.00608027172874025</v>
       </c>
       <c r="J4">
-        <v>0.001711767187487096</v>
+        <v>0.006080271728740251</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1994553333333333</v>
+        <v>0.298136</v>
       </c>
       <c r="N4">
-        <v>0.598366</v>
+        <v>0.8944080000000001</v>
       </c>
       <c r="O4">
-        <v>0.001520901228493132</v>
+        <v>0.002454678613257035</v>
       </c>
       <c r="P4">
-        <v>0.001606614412143705</v>
+        <v>0.002535232047552183</v>
       </c>
       <c r="Q4">
-        <v>0.004561476988222222</v>
+        <v>0.01622356733333333</v>
       </c>
       <c r="R4">
-        <v>0.041053292894</v>
+        <v>0.146012106</v>
       </c>
       <c r="S4">
-        <v>2.603428818343358E-06</v>
+        <v>1.492511297533007E-05</v>
       </c>
       <c r="T4">
-        <v>2.750149833651464E-06</v>
+        <v>1.54148997445278E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.02286966666666667</v>
+        <v>0.05441666666666667</v>
       </c>
       <c r="H5">
-        <v>0.068609</v>
+        <v>0.16325</v>
       </c>
       <c r="I5">
-        <v>0.001711767187487096</v>
+        <v>0.00608027172874025</v>
       </c>
       <c r="J5">
-        <v>0.001711767187487096</v>
+        <v>0.006080271728740251</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.989489</v>
+        <v>11.5773025</v>
       </c>
       <c r="N5">
-        <v>41.978978</v>
+        <v>23.154605</v>
       </c>
       <c r="O5">
-        <v>0.1600505690775031</v>
+        <v>0.0953207826158438</v>
       </c>
       <c r="P5">
-        <v>0.1127136753456305</v>
+        <v>0.06563257109105912</v>
       </c>
       <c r="Q5">
-        <v>0.4800226169336667</v>
+        <v>0.6299982110416666</v>
       </c>
       <c r="R5">
-        <v>2.880135701602</v>
+        <v>3.77998926625</v>
       </c>
       <c r="S5">
-        <v>0.0002739693124855068</v>
+        <v>0.0005795762597005102</v>
       </c>
       <c r="T5">
-        <v>0.0001929395710377236</v>
+        <v>0.0003990638664895015</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.02286966666666667</v>
+        <v>0.05441666666666667</v>
       </c>
       <c r="H6">
-        <v>0.068609</v>
+        <v>0.16325</v>
       </c>
       <c r="I6">
-        <v>0.001711767187487096</v>
+        <v>0.00608027172874025</v>
       </c>
       <c r="J6">
-        <v>0.001711767187487096</v>
+        <v>0.006080271728740251</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.33994</v>
+        <v>0.3338006666666667</v>
       </c>
       <c r="N6">
-        <v>1.01982</v>
+        <v>1.001402</v>
       </c>
       <c r="O6">
-        <v>0.002592135065899242</v>
+        <v>0.00274832075816945</v>
       </c>
       <c r="P6">
-        <v>0.002738219601034138</v>
+        <v>0.002838510436940246</v>
       </c>
       <c r="Q6">
-        <v>0.007774314486666666</v>
+        <v>0.01816431961111111</v>
       </c>
       <c r="R6">
-        <v>0.06996883038</v>
+        <v>0.1634788765</v>
       </c>
       <c r="S6">
-        <v>4.437131751341025E-06</v>
+        <v>1.671053700740768E-05</v>
       </c>
       <c r="T6">
-        <v>4.687194465184245E-06</v>
+        <v>1.725891476146191E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.046308333333333</v>
+        <v>4.046611333333334</v>
       </c>
       <c r="H7">
-        <v>15.138925</v>
+        <v>12.139834</v>
       </c>
       <c r="I7">
-        <v>0.3777101410722805</v>
+        <v>0.4521500120171497</v>
       </c>
       <c r="J7">
-        <v>0.3777101410722805</v>
+        <v>0.4521500120171497</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.37432</v>
+        <v>13.00733333333333</v>
       </c>
       <c r="N7">
-        <v>40.12296000000001</v>
+        <v>39.022</v>
       </c>
       <c r="O7">
-        <v>0.1019828318366699</v>
+        <v>0.1070948256796854</v>
       </c>
       <c r="P7">
-        <v>0.1077302617359031</v>
+        <v>0.1106092800596386</v>
       </c>
       <c r="Q7">
-        <v>67.49094246866667</v>
+        <v>52.63562248311112</v>
       </c>
       <c r="R7">
-        <v>607.4184822180001</v>
+        <v>473.720602348</v>
       </c>
       <c r="S7">
-        <v>0.03851994979997923</v>
+        <v>0.04842292671804429</v>
       </c>
       <c r="T7">
-        <v>0.04069081235802166</v>
+        <v>0.05001198730817388</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.046308333333333</v>
+        <v>4.046611333333334</v>
       </c>
       <c r="H8">
-        <v>15.138925</v>
+        <v>12.139834</v>
       </c>
       <c r="I8">
-        <v>0.3777101410722805</v>
+        <v>0.4521500120171497</v>
       </c>
       <c r="J8">
-        <v>0.3777101410722805</v>
+        <v>0.4521500120171497</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>288.71896</v>
       </c>
       <c r="O8">
-        <v>0.7338535627914345</v>
+        <v>0.7923813923330444</v>
       </c>
       <c r="P8">
-        <v>0.7752112289052886</v>
+        <v>0.8183844063648099</v>
       </c>
       <c r="Q8">
-        <v>485.6549646131112</v>
+        <v>389.4444718947379</v>
       </c>
       <c r="R8">
-        <v>4370.894681518001</v>
+        <v>3505.000247052641</v>
       </c>
       <c r="S8">
-        <v>0.2771839327283483</v>
+        <v>0.3582752560655518</v>
       </c>
       <c r="T8">
-        <v>0.2928051426306325</v>
+        <v>0.3700325191724967</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.046308333333333</v>
+        <v>4.046611333333334</v>
       </c>
       <c r="H9">
-        <v>15.138925</v>
+        <v>12.139834</v>
       </c>
       <c r="I9">
-        <v>0.3777101410722805</v>
+        <v>0.4521500120171497</v>
       </c>
       <c r="J9">
-        <v>0.3777101410722805</v>
+        <v>0.4521500120171497</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1994553333333333</v>
+        <v>0.298136</v>
       </c>
       <c r="N9">
-        <v>0.598366</v>
+        <v>0.8944080000000001</v>
       </c>
       <c r="O9">
-        <v>0.001520901228493132</v>
+        <v>0.002454678613257035</v>
       </c>
       <c r="P9">
-        <v>0.001606614412143705</v>
+        <v>0.002535232047552183</v>
       </c>
       <c r="Q9">
-        <v>1.006513110727778</v>
+        <v>1.206440516474667</v>
       </c>
       <c r="R9">
-        <v>9.05861799655</v>
+        <v>10.857964648272</v>
       </c>
       <c r="S9">
-        <v>0.0005744598175711456</v>
+        <v>0.001109882964482409</v>
       </c>
       <c r="T9">
-        <v>0.0006068345562595576</v>
+        <v>0.001146305200766982</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.046308333333333</v>
+        <v>4.046611333333334</v>
       </c>
       <c r="H10">
-        <v>15.138925</v>
+        <v>12.139834</v>
       </c>
       <c r="I10">
-        <v>0.3777101410722805</v>
+        <v>0.4521500120171497</v>
       </c>
       <c r="J10">
-        <v>0.3777101410722805</v>
+        <v>0.4521500120171497</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.989489</v>
+        <v>11.5773025</v>
       </c>
       <c r="N10">
-        <v>41.978978</v>
+        <v>23.154605</v>
       </c>
       <c r="O10">
-        <v>0.1600505690775031</v>
+        <v>0.0953207826158438</v>
       </c>
       <c r="P10">
-        <v>0.1127136753456305</v>
+        <v>0.06563257109105912</v>
       </c>
       <c r="Q10">
-        <v>105.9194332531083</v>
+        <v>46.84884350592834</v>
       </c>
       <c r="R10">
-        <v>635.51659951865</v>
+        <v>281.09306103557</v>
       </c>
       <c r="S10">
-        <v>0.06045272302496248</v>
+        <v>0.04309929300523788</v>
       </c>
       <c r="T10">
-        <v>0.04257309821557331</v>
+        <v>0.02967576780753881</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.046308333333333</v>
+        <v>4.046611333333334</v>
       </c>
       <c r="H11">
-        <v>15.138925</v>
+        <v>12.139834</v>
       </c>
       <c r="I11">
-        <v>0.3777101410722805</v>
+        <v>0.4521500120171497</v>
       </c>
       <c r="J11">
-        <v>0.3777101410722805</v>
+        <v>0.4521500120171497</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.33994</v>
+        <v>0.3338006666666667</v>
       </c>
       <c r="N11">
-        <v>1.01982</v>
+        <v>1.001402</v>
       </c>
       <c r="O11">
-        <v>0.002592135065899242</v>
+        <v>0.00274832075816945</v>
       </c>
       <c r="P11">
-        <v>0.002738219601034138</v>
+        <v>0.002838510436940246</v>
       </c>
       <c r="Q11">
-        <v>1.715442054833333</v>
+        <v>1.350761560807556</v>
       </c>
       <c r="R11">
-        <v>15.4389784935</v>
+        <v>12.156854047268</v>
       </c>
       <c r="S11">
-        <v>0.0009790757014192077</v>
+        <v>0.001242653263833299</v>
       </c>
       <c r="T11">
-        <v>0.001034253311793488</v>
+        <v>0.001283432528173337</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>8.291088999999999</v>
+        <v>4.848681666666667</v>
       </c>
       <c r="H12">
-        <v>24.873267</v>
+        <v>14.546045</v>
       </c>
       <c r="I12">
-        <v>0.6205780917402324</v>
+        <v>0.5417697162541101</v>
       </c>
       <c r="J12">
-        <v>0.6205780917402324</v>
+        <v>0.5417697162541102</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.37432</v>
+        <v>13.00733333333333</v>
       </c>
       <c r="N12">
-        <v>40.12296000000001</v>
+        <v>39.022</v>
       </c>
       <c r="O12">
-        <v>0.1019828318366699</v>
+        <v>0.1070948256796854</v>
       </c>
       <c r="P12">
-        <v>0.1077302617359031</v>
+        <v>0.1106092800596386</v>
       </c>
       <c r="Q12">
-        <v>110.88767743448</v>
+        <v>63.06841866555555</v>
       </c>
       <c r="R12">
-        <v>997.9890969103201</v>
+        <v>567.61576799</v>
       </c>
       <c r="S12">
-        <v>0.06328831117146562</v>
+        <v>0.05802073332076652</v>
       </c>
       <c r="T12">
-        <v>0.06685504025074253</v>
+        <v>0.05992475827298183</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>8.291088999999999</v>
+        <v>4.848681666666667</v>
       </c>
       <c r="H13">
-        <v>24.873267</v>
+        <v>14.546045</v>
       </c>
       <c r="I13">
-        <v>0.6205780917402324</v>
+        <v>0.5417697162541101</v>
       </c>
       <c r="J13">
-        <v>0.6205780917402324</v>
+        <v>0.5417697162541102</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>288.71896</v>
       </c>
       <c r="O13">
-        <v>0.7338535627914345</v>
+        <v>0.7923813923330444</v>
       </c>
       <c r="P13">
-        <v>0.7752112289052886</v>
+        <v>0.8183844063648099</v>
       </c>
       <c r="Q13">
-        <v>797.9315311158134</v>
+        <v>466.635442723689</v>
       </c>
       <c r="R13">
-        <v>7181.383780042321</v>
+        <v>4199.718984513201</v>
       </c>
       <c r="S13">
-        <v>0.4554134436138793</v>
+        <v>0.4292882420893102</v>
       </c>
       <c r="T13">
-        <v>0.4810791051296445</v>
+        <v>0.4433758876230515</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.291088999999999</v>
+        <v>4.848681666666667</v>
       </c>
       <c r="H14">
-        <v>24.873267</v>
+        <v>14.546045</v>
       </c>
       <c r="I14">
-        <v>0.6205780917402324</v>
+        <v>0.5417697162541101</v>
       </c>
       <c r="J14">
-        <v>0.6205780917402324</v>
+        <v>0.5417697162541102</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1994553333333333</v>
+        <v>0.298136</v>
       </c>
       <c r="N14">
-        <v>0.598366</v>
+        <v>0.8944080000000001</v>
       </c>
       <c r="O14">
-        <v>0.001520901228493132</v>
+        <v>0.002454678613257035</v>
       </c>
       <c r="P14">
-        <v>0.001606614412143705</v>
+        <v>0.002535232047552183</v>
       </c>
       <c r="Q14">
-        <v>1.653701920191333</v>
+        <v>1.445566557373333</v>
       </c>
       <c r="R14">
-        <v>14.883317281722</v>
+        <v>13.01009901636</v>
       </c>
       <c r="S14">
-        <v>0.000943837982103643</v>
+        <v>0.001329870535799297</v>
       </c>
       <c r="T14">
-        <v>0.0009970297060504954</v>
+        <v>0.001373511947040673</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.291088999999999</v>
+        <v>4.848681666666667</v>
       </c>
       <c r="H15">
-        <v>24.873267</v>
+        <v>14.546045</v>
       </c>
       <c r="I15">
-        <v>0.6205780917402324</v>
+        <v>0.5417697162541101</v>
       </c>
       <c r="J15">
-        <v>0.6205780917402324</v>
+        <v>0.5417697162541102</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>20.989489</v>
+        <v>11.5773025</v>
       </c>
       <c r="N15">
-        <v>41.978978</v>
+        <v>23.154605</v>
       </c>
       <c r="O15">
-        <v>0.1600505690775031</v>
+        <v>0.0953207826158438</v>
       </c>
       <c r="P15">
-        <v>0.1127136753456305</v>
+        <v>0.06563257109105912</v>
       </c>
       <c r="Q15">
-        <v>174.025721363521</v>
+        <v>56.13465438120417</v>
       </c>
       <c r="R15">
-        <v>1044.154328181126</v>
+        <v>336.807926287225</v>
       </c>
       <c r="S15">
-        <v>0.09932387674005515</v>
+        <v>0.05164191335090541</v>
       </c>
       <c r="T15">
-        <v>0.06994763755901943</v>
+        <v>0.03555773941703082</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.291088999999999</v>
+        <v>4.848681666666667</v>
       </c>
       <c r="H16">
-        <v>24.873267</v>
+        <v>14.546045</v>
       </c>
       <c r="I16">
-        <v>0.6205780917402324</v>
+        <v>0.5417697162541101</v>
       </c>
       <c r="J16">
-        <v>0.6205780917402324</v>
+        <v>0.5417697162541102</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.33994</v>
+        <v>0.3338006666666667</v>
       </c>
       <c r="N16">
-        <v>1.01982</v>
+        <v>1.001402</v>
       </c>
       <c r="O16">
-        <v>0.002592135065899242</v>
+        <v>0.00274832075816945</v>
       </c>
       <c r="P16">
-        <v>0.002738219601034138</v>
+        <v>0.002838510436940246</v>
       </c>
       <c r="Q16">
-        <v>2.818472794659999</v>
+        <v>1.618493172787778</v>
       </c>
       <c r="R16">
-        <v>25.36625515194</v>
+        <v>14.56643855509</v>
       </c>
       <c r="S16">
-        <v>0.001608622232728693</v>
+        <v>0.001488956957328744</v>
       </c>
       <c r="T16">
-        <v>0.001699279094775466</v>
+        <v>0.001537818994005447</v>
       </c>
     </row>
   </sheetData>
